--- a/Datos/Anuario2024/110702_SedeElectronicaAyuntamiento.xlsx
+++ b/Datos/Anuario2024/110702_SedeElectronicaAyuntamiento.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="86" r:id="rId1"/>
+    <sheet name="1" sheetId="88" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -19,17 +25,22 @@
     <definedName name="_BLA2">'[1]1.3'!$C$2:$F$22</definedName>
     <definedName name="_R1_1">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
     <definedName name="_R1_6">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
     <definedName name="_R1_9">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_12">#REF!</definedName>
     <definedName name="_R2_13">#REF!</definedName>
     <definedName name="_R2_14">#REF!</definedName>
@@ -42,9 +53,12 @@
     <definedName name="_R2_20">#REF!</definedName>
     <definedName name="_R2_21">#REF!</definedName>
     <definedName name="_R2_22">'[1]2.34'!$B$2:$F$4</definedName>
+    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
     <definedName name="_R2_5">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
     <definedName name="_R2_7">'[1]2.26'!$B$2:$L$36</definedName>
     <definedName name="_R2_8">#REF!</definedName>
@@ -60,6 +74,7 @@
     <definedName name="_R3_17">#REF!</definedName>
     <definedName name="_R3_18">'[2]2.5'!$A$1:$G$25</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
@@ -69,11 +84,14 @@
     <definedName name="_R3_5">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
@@ -101,12 +119,15 @@
     <definedName name="_R5_26">'[2]4.37'!$A$1:$U$26</definedName>
     <definedName name="_R5_3">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="1">'1'!$A$1:$B$11</definedName>
     <definedName name="_R5_5">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3">'[1]5.2'!$B$2:$G$4</definedName>
     <definedName name="_R6_4">'[1]5.4'!$B$2:$N$8</definedName>
@@ -123,94 +144,159 @@
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="1">'1'!$A$1:$B$11</definedName>
-    <definedName name="_R5_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Número de visitantes</t>
+  </si>
+  <si>
+    <t>Media diaria de visitantes</t>
+  </si>
+  <si>
+    <t>Instancias presentadas</t>
+  </si>
+  <si>
+    <t>Trámites iniciados</t>
+  </si>
+  <si>
+    <t>Accesos autenticados a la sede</t>
+  </si>
+  <si>
+    <t>Accesos con DNIe</t>
+  </si>
+  <si>
+    <t>Certificados de padrón</t>
+  </si>
+  <si>
+    <t>Nuevos usuarios en la Sede</t>
+  </si>
+  <si>
+    <t>SEDE ELECTRÓNICA MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Tecnologías de la Información y la Comunicación. Ayuntamiento de València</t>
+  </si>
+  <si>
+    <t>Nota: Estadísticas ofrecidas con el servicio de Google Analytics 4. Los años anteriores se ofrecían con Universal Analytics.</t>
+  </si>
+  <si>
+    <t>1. Actividad en la Sede Electrónica del Ayuntamiento de València por mes. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -239,56 +325,57 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Porcentaje 2" xfId="7"/>
     <cellStyle name="style1595592910070" xfId="8"/>
+    <cellStyle name="style1595592910101" xfId="10"/>
     <cellStyle name="style1595592910148" xfId="9"/>
-    <cellStyle name="style1595592910101" xfId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -357,13 +444,26 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2021,8 +2121,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13710,7 +13810,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17505,8 +17605,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19688,8 +19788,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20685,542 +20785,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="39.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>SEDE ELECTRÓNICA MUNICIPAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="26.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" style="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="14"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>1. Actividad en la Sede Electrónica del Ayuntamiento de València por mes. 2023</t>
-        </is>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
       </c>
-      <c r="B1" s="7" t="n"/>
+      <c r="B1" s="7"/>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="7" t="n"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
       </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
       </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
       </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
+      <c r="K3" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="L3" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
+      <c r="L3" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="M3" s="8" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
+      <c r="M3" s="8" t="s">
+        <v>11</v>
       </c>
-      <c r="N3" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>Número de visitantes</t>
-        </is>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="10">
         <v>1742884</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>148661</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>142872</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>161713</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="10">
         <v>141329</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>185909</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>171767</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="10">
         <v>133824</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="10">
         <v>97629</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="10">
         <v>148065</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="10">
         <v>149556</v>
       </c>
-      <c r="M4" s="10" t="n">
+      <c r="M4" s="10">
         <v>143726</v>
       </c>
-      <c r="N4" s="10" t="n">
+      <c r="N4" s="10">
         <v>117833</v>
       </c>
-      <c r="O4" s="12" t="n"/>
+      <c r="O4" s="12"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Media diaria de visitantes</t>
-        </is>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>57366.27788018434</v>
+      <c r="B5" s="9">
+        <v>57366.277880184338</v>
       </c>
-      <c r="C5" s="9" t="n">
-        <v>4795.516129032259</v>
+      <c r="C5" s="9">
+        <v>4795.5161290322585</v>
       </c>
-      <c r="D5" s="9" t="n">
-        <v>5102.571428571428</v>
+      <c r="D5" s="9">
+        <v>5102.5714285714284</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>5216.548387096775</v>
+      <c r="E5" s="9">
+        <v>5216.5483870967746</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>4710.966666666666</v>
+      <c r="F5" s="9">
+        <v>4710.9666666666662</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <v>5997.064516129032</v>
+      <c r="G5" s="9">
+        <v>5997.0645161290322</v>
       </c>
-      <c r="H5" s="9" t="n">
-        <v>5725.566666666667</v>
+      <c r="H5" s="9">
+        <v>5725.5666666666666</v>
       </c>
-      <c r="I5" s="9" t="n">
-        <v>4316.903225806452</v>
+      <c r="I5" s="9">
+        <v>4316.9032258064517</v>
       </c>
-      <c r="J5" s="9" t="n">
-        <v>3149.322580645161</v>
+      <c r="J5" s="9">
+        <v>3149.3225806451615</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="9">
         <v>4935.5</v>
       </c>
-      <c r="L5" s="9" t="n">
-        <v>4824.387096774193</v>
+      <c r="L5" s="9">
+        <v>4824.3870967741932</v>
       </c>
-      <c r="M5" s="9" t="n">
-        <v>4790.866666666667</v>
+      <c r="M5" s="9">
+        <v>4790.8666666666668</v>
       </c>
-      <c r="N5" s="9" t="n">
-        <v>3801.064516129032</v>
+      <c r="N5" s="9">
+        <v>3801.0645161290322</v>
       </c>
-      <c r="O5" s="12" t="n"/>
+      <c r="O5" s="12"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Instancias presentadas</t>
-        </is>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="10">
         <v>309050</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="10">
         <v>23481</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>24426</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>28092</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>21100</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="10">
         <v>44522</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>41136</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="10">
         <v>23076</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="10">
         <v>13745</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="10">
         <v>22021</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="10">
         <v>23825</v>
       </c>
-      <c r="M6" s="10" t="n">
+      <c r="M6" s="10">
         <v>25769</v>
       </c>
-      <c r="N6" s="10" t="n">
+      <c r="N6" s="10">
         <v>17857</v>
       </c>
-      <c r="O6" s="12" t="n"/>
+      <c r="O6" s="12"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Trámites iniciados</t>
-        </is>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="9">
         <v>434854</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>33220</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>35066</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="9">
         <v>39292</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>32008</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="9">
         <v>60776</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>57222</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="9">
         <v>33031</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="9">
         <v>19248</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="9">
         <v>31369</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>32937</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="9">
         <v>35541</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="9">
         <v>25144</v>
       </c>
-      <c r="O7" s="12" t="n"/>
+      <c r="O7" s="12"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Accesos autenticados a la sede</t>
-        </is>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="10">
         <v>1334119</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>107196</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>105478</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>123645</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>104006</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="10">
         <v>163940</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="10">
         <v>143758</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="10">
         <v>104903</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>66252</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="10">
         <v>107304</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="10">
         <v>112695</v>
       </c>
-      <c r="M8" s="10" t="n">
+      <c r="M8" s="10">
         <v>113582</v>
       </c>
-      <c r="N8" s="10" t="n">
+      <c r="N8" s="10">
         <v>81360</v>
       </c>
-      <c r="O8" s="12" t="n"/>
+      <c r="O8" s="12"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Accesos con DNIe</t>
-        </is>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="9">
         <v>15270</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="9">
         <v>1323</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>1283</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="9">
         <v>1467</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="9">
         <v>1243</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="9">
         <v>2126</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="9">
         <v>1771</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="9">
         <v>1184</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>718</v>
       </c>
-      <c r="K9" s="9" t="n">
+      <c r="K9" s="9">
         <v>1106</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="9">
         <v>1152</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="9">
         <v>1103</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="9">
         <v>794</v>
       </c>
-      <c r="O9" s="12" t="n"/>
+      <c r="O9" s="12"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Nuevos usuarios en la Sede</t>
-        </is>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="10">
         <v>83496</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="10">
         <v>7558</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>7691</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>8695</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="10">
         <v>6495</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="10">
         <v>10618</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="10">
         <v>9519</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="10">
         <v>5722</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="10">
         <v>3995</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="10">
         <v>6258</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="10">
         <v>6361</v>
       </c>
-      <c r="M10" s="10" t="n">
+      <c r="M10" s="10">
         <v>6042</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="10">
         <v>4542</v>
       </c>
-      <c r="O10" s="12" t="n"/>
+      <c r="O10" s="12"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Certificados de padrón</t>
-        </is>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="9">
         <v>681213</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="9">
         <v>70419</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>67097</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="9">
         <v>69941</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="9">
         <v>52779</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="9">
         <v>69957</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="9">
         <v>63874</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="9">
         <v>51925</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="9">
         <v>39239</v>
       </c>
-      <c r="K11" s="9" t="n">
+      <c r="K11" s="9">
         <v>53187</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="9">
         <v>52074</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="M11" s="9">
         <v>51984</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="9">
         <v>38737</v>
       </c>
-      <c r="O11" s="12" t="n"/>
+      <c r="O11" s="12"/>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Nota: Estadísticas ofrecidas con el servicio de Google Analytics 4. Los años anteriores se ofrecían con Universal Analytics.</t>
-        </is>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Tecnologías de la Información y la Comunicación. Ayuntamiento de València</t>
-        </is>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="57" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>